--- a/data/CABG Hyperglycemia Variable List.xlsx
+++ b/data/CABG Hyperglycemia Variable List.xlsx
@@ -3,9 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7647E3C7-C77D-432B-A35D-CC3BEBD2A9B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD455D0-CD13-4B6D-84B4-86EEDECD6849}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="3" activeTab="5" xr2:uid="{D77AD16B-127C-49C6-A7A9-A7B3BB10E535}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="3" activeTab="3" xr2:uid="{D77AD16B-127C-49C6-A7A9-A7B3BB10E535}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="3" activeTab="6" xr2:uid="{B96CC77E-FCF4-46B2-81D7-CEA310C0BD20}"/>
   </bookViews>
   <sheets>
     <sheet name="or_to_icu" sheetId="1" state="hidden" r:id="rId1"/>
@@ -14,9 +15,16 @@
     <sheet name="METACABG 20230706" sheetId="7" r:id="rId4"/>
     <sheet name="CGM Review" sheetId="9" r:id="rId5"/>
     <sheet name="METACABG CGM" sheetId="8" r:id="rId6"/>
-    <sheet name="cgm_summary" sheetId="3" r:id="rId7"/>
-    <sheet name="aha glucose" sheetId="5" state="hidden" r:id="rId8"/>
-    <sheet name="aha patient" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="bg_longitudinal" sheetId="10" r:id="rId7"/>
+    <sheet name="cgm_summary" sheetId="3" r:id="rId8"/>
+    <sheet name="cgm harmonization" sheetId="11" r:id="rId9"/>
+    <sheet name="cgm insertion dates" sheetId="12" r:id="rId10"/>
+    <sheet name="corrected key observation dates" sheetId="13" r:id="rId11"/>
+    <sheet name="insulinbolus_longitudinal" sheetId="14" r:id="rId12"/>
+    <sheet name="insulindrip_longitudinal" sheetId="15" r:id="rId13"/>
+    <sheet name="screening" sheetId="17" r:id="rId14"/>
+    <sheet name="aha glucose" sheetId="5" state="hidden" r:id="rId15"/>
+    <sheet name="aha patient" sheetId="6" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'METACABG 20230706'!$B$1:$I$505</definedName>
@@ -65,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="2290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3613" uniqueCount="2346">
   <si>
     <t>variable</t>
   </si>
@@ -6997,6 +7005,174 @@
   </si>
   <si>
     <t xml:space="preserve">LGA 8/2/2023 added; MCM033 - CGM 1, sensor lost. Patient left with the sensor on, said he would return it but never did. </t>
+  </si>
+  <si>
+    <t>Unique patient ID</t>
+  </si>
+  <si>
+    <t>Date of surgery</t>
+  </si>
+  <si>
+    <t>Date of observation day 1</t>
+  </si>
+  <si>
+    <t>Date of observation day 2</t>
+  </si>
+  <si>
+    <t>Blinded group</t>
+  </si>
+  <si>
+    <t>Date of CGM1 insertion</t>
+  </si>
+  <si>
+    <t>Date of CGM2 insertion</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>sensorglucose</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>cgm_id</t>
+  </si>
+  <si>
+    <t>cgm_type</t>
+  </si>
+  <si>
+    <t>Timestamp in YYYY-MM-DD HH:MM:SS</t>
+  </si>
+  <si>
+    <t>Glucose in mg/dL</t>
+  </si>
+  <si>
+    <t>source file after initial cleaning located in [Smith, Ryan - Emory_Pasquel_F_CABG_Hyperglycemia\Glucose and Insulin Data\raw\CGM]</t>
+  </si>
+  <si>
+    <t>CGM identifier (internal)</t>
+  </si>
+  <si>
+    <t>CGM 1 or CGM 2?</t>
+  </si>
+  <si>
+    <t>Same as cgm1_status from CABG Hyperglycemia Variable List &gt;&gt; Sheet 'METACABG CGM'</t>
+  </si>
+  <si>
+    <t>date_event_name</t>
+  </si>
+  <si>
+    <t>Surgery or Post 1 or Post 2</t>
+  </si>
+  <si>
+    <t>Date of event_name for QC purposes</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>date_measurement</t>
+  </si>
+  <si>
+    <t>or_bg [Blood glucose in OR] or cgmbg_bg [Blood glucose checked against CGM] or meal_bg [Blood glucose at time of meal]</t>
+  </si>
+  <si>
+    <t>serial number</t>
+  </si>
+  <si>
+    <t>Time in HH:MM:SS</t>
+  </si>
+  <si>
+    <t>Date of measurement</t>
+  </si>
+  <si>
+    <t>date_measurement + time</t>
+  </si>
+  <si>
+    <t>or_ibolus [Insulin bolus in OR] or icu48_isq [Insulin bolus in ICU]</t>
+  </si>
+  <si>
+    <t>Insulin units</t>
+  </si>
+  <si>
+    <t>time_start</t>
+  </si>
+  <si>
+    <t>time_stop</t>
+  </si>
+  <si>
+    <t>Time when drip started in HH:MM:SS</t>
+  </si>
+  <si>
+    <t>Time when drip stopped in HH:MM:SS</t>
+  </si>
+  <si>
+    <t>time_total</t>
+  </si>
+  <si>
+    <t>Time between time_start and time_stop in hours</t>
+  </si>
+  <si>
+    <t>rate_value</t>
+  </si>
+  <si>
+    <t>Insulin units (rate per hour)</t>
+  </si>
+  <si>
+    <t>units_value</t>
+  </si>
+  <si>
+    <t>Insulin units (total)</t>
+  </si>
+  <si>
+    <t>date_stop</t>
+  </si>
+  <si>
+    <t>timestamp_start</t>
+  </si>
+  <si>
+    <t>timestamp_stop</t>
+  </si>
+  <si>
+    <t>Usually same as date_measurement, except if drip was run overnight</t>
+  </si>
+  <si>
+    <t>Date of measurement (date of drip)</t>
+  </si>
+  <si>
+    <t>date_measurement + time_start</t>
+  </si>
+  <si>
+    <t>date_stop + time_stop</t>
+  </si>
+  <si>
+    <t>screening for everyone</t>
+  </si>
+  <si>
+    <t>Age at time of consent [ref: CABG Hyperglycemia Variable List &gt;&gt; Sheet 'METACABG 2023-0706')</t>
+  </si>
+  <si>
+    <t>Male or Female</t>
+  </si>
+  <si>
+    <t>Black or White or Hispanic or Other</t>
+  </si>
+  <si>
+    <t>Asian or 'NA'</t>
+  </si>
+  <si>
+    <t>BMI in kg/m2</t>
+  </si>
+  <si>
+    <t>Intervention or Observation Only? [ref: CABG Hyperglycemia Variable List &gt;&gt; Sheet 'METACABG 2023-0706')</t>
   </si>
 </sst>
 </file>
@@ -7453,6 +7629,7 @@
   <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8251,11 +8428,1808 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D805C213-73B7-4BDA-9D53-9A17290325F0}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4A8C48-B656-4918-9751-2A06B95AB2C6}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2DA843-64A0-4D27-8FB3-0127EBCBA411}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40644621-1763-4A03-B26A-EAFD1B94CF35}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7DBC14-5454-4391-A166-41E8DEDC2E26}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F730E738-71E8-4BB9-9BDD-FAFBA3CE3EC3}">
+  <dimension ref="A1:B146"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="56.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>686</v>
+      </c>
+      <c r="B6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>741</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>742</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>743</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>744</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>745</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>746</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>747</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>748</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>749</v>
+      </c>
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>750</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>751</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>752</v>
+      </c>
+      <c r="B53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>753</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>754</v>
+      </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>718</v>
+      </c>
+      <c r="B64" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>755</v>
+      </c>
+      <c r="B65" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>719</v>
+      </c>
+      <c r="B66" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>756</v>
+      </c>
+      <c r="B67" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>720</v>
+      </c>
+      <c r="B68" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>757</v>
+      </c>
+      <c r="B69" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>721</v>
+      </c>
+      <c r="B70" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>758</v>
+      </c>
+      <c r="B71" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>722</v>
+      </c>
+      <c r="B72" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>759</v>
+      </c>
+      <c r="B73" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>723</v>
+      </c>
+      <c r="B74" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>760</v>
+      </c>
+      <c r="B75" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>813</v>
+      </c>
+      <c r="B85" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>814</v>
+      </c>
+      <c r="B87" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>815</v>
+      </c>
+      <c r="B89" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>816</v>
+      </c>
+      <c r="B91" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>817</v>
+      </c>
+      <c r="B93" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>818</v>
+      </c>
+      <c r="B95" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>819</v>
+      </c>
+      <c r="B97" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>204</v>
+      </c>
+      <c r="B98" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>820</v>
+      </c>
+      <c r="B99" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>821</v>
+      </c>
+      <c r="B101" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>822</v>
+      </c>
+      <c r="B103" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>823</v>
+      </c>
+      <c r="B105" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>824</v>
+      </c>
+      <c r="B107" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>825</v>
+      </c>
+      <c r="B109" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>826</v>
+      </c>
+      <c r="B111" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>827</v>
+      </c>
+      <c r="B113" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>828</v>
+      </c>
+      <c r="B115" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>829</v>
+      </c>
+      <c r="B116" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>830</v>
+      </c>
+      <c r="B117" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>831</v>
+      </c>
+      <c r="B118" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>832</v>
+      </c>
+      <c r="B119" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>833</v>
+      </c>
+      <c r="B120" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>834</v>
+      </c>
+      <c r="B121" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>835</v>
+      </c>
+      <c r="B122" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>836</v>
+      </c>
+      <c r="B123" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>837</v>
+      </c>
+      <c r="B124" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>838</v>
+      </c>
+      <c r="B125" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>839</v>
+      </c>
+      <c r="B126" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>840</v>
+      </c>
+      <c r="B127" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>841</v>
+      </c>
+      <c r="B128" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>842</v>
+      </c>
+      <c r="B129" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>843</v>
+      </c>
+      <c r="B130" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>844</v>
+      </c>
+      <c r="B131" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>845</v>
+      </c>
+      <c r="B132" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>846</v>
+      </c>
+      <c r="B133" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>847</v>
+      </c>
+      <c r="B134" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>848</v>
+      </c>
+      <c r="B135" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>849</v>
+      </c>
+      <c r="B136" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>850</v>
+      </c>
+      <c r="B137" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>851</v>
+      </c>
+      <c r="B138" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>852</v>
+      </c>
+      <c r="B139" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>853</v>
+      </c>
+      <c r="B140" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>854</v>
+      </c>
+      <c r="B141" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>855</v>
+      </c>
+      <c r="B142" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>856</v>
+      </c>
+      <c r="B143" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7ED6AA-780D-40B6-8131-5D17C4E940B1}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="90.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>766</v>
+      </c>
+      <c r="B7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>767</v>
+      </c>
+      <c r="B10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>768</v>
+      </c>
+      <c r="B11" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>769</v>
+      </c>
+      <c r="B12" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>770</v>
+      </c>
+      <c r="B13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>771</v>
+      </c>
+      <c r="B14" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>772</v>
+      </c>
+      <c r="B15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>773</v>
+      </c>
+      <c r="B16" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>774</v>
+      </c>
+      <c r="B17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>775</v>
+      </c>
+      <c r="B18" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>776</v>
+      </c>
+      <c r="B19" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>777</v>
+      </c>
+      <c r="B20" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>778</v>
+      </c>
+      <c r="B21" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>779</v>
+      </c>
+      <c r="B22" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>780</v>
+      </c>
+      <c r="B23" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>782</v>
+      </c>
+      <c r="B25" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>783</v>
+      </c>
+      <c r="B26" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>784</v>
+      </c>
+      <c r="B27" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>785</v>
+      </c>
+      <c r="B28" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>786</v>
+      </c>
+      <c r="B29" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>787</v>
+      </c>
+      <c r="B30" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>788</v>
+      </c>
+      <c r="B31" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>789</v>
+      </c>
+      <c r="B32" t="s">
+        <v>806</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF6723E-FEDE-4F29-9272-6E8BFEC4F8C1}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8316,6 +10290,7 @@
   <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9826,10 +11801,11 @@
   </sheetPr>
   <dimension ref="A1:L505"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -17093,8 +19069,9 @@
       <pane xSplit="1" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18675,10 +20652,11 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -20472,6 +22450,99 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F51FC5-61D6-4D3D-A84E-E413F531C436}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07280A18-1BD1-4FDB-AB03-8EC8E7A45C01}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -20479,6 +22550,7 @@
   <dimension ref="A1:A158"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -21280,16 +23352,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F730E738-71E8-4BB9-9BDD-FAFBA3CE3EC3}">
-  <dimension ref="A1:B146"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3487DC-80B1-42DB-B16C-C7930D5F410A}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="56.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -21297,1319 +23371,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2297</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>2298</v>
       </c>
       <c r="B3" t="s">
-        <v>762</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>687</v>
+        <v>2299</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>685</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>688</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>686</v>
+        <v>2300</v>
       </c>
       <c r="B6" t="s">
-        <v>689</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>2301</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>2286</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>741</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>742</v>
-      </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>743</v>
-      </c>
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>744</v>
-      </c>
-      <c r="B21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>745</v>
-      </c>
-      <c r="B25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>746</v>
-      </c>
-      <c r="B29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>747</v>
-      </c>
-      <c r="B33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>748</v>
-      </c>
-      <c r="B39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>749</v>
-      </c>
-      <c r="B41" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>750</v>
-      </c>
-      <c r="B45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>751</v>
-      </c>
-      <c r="B49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>752</v>
-      </c>
-      <c r="B53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>753</v>
-      </c>
-      <c r="B57" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>754</v>
-      </c>
-      <c r="B61" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>718</v>
-      </c>
-      <c r="B64" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>755</v>
-      </c>
-      <c r="B65" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>719</v>
-      </c>
-      <c r="B66" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>756</v>
-      </c>
-      <c r="B67" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>720</v>
-      </c>
-      <c r="B68" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>757</v>
-      </c>
-      <c r="B69" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>721</v>
-      </c>
-      <c r="B70" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>758</v>
-      </c>
-      <c r="B71" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>722</v>
-      </c>
-      <c r="B72" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>759</v>
-      </c>
-      <c r="B73" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>723</v>
-      </c>
-      <c r="B74" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>760</v>
-      </c>
-      <c r="B75" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>193</v>
-      </c>
-      <c r="B84" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>813</v>
-      </c>
-      <c r="B85" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>194</v>
-      </c>
-      <c r="B86" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>814</v>
-      </c>
-      <c r="B87" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>195</v>
-      </c>
-      <c r="B88" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>815</v>
-      </c>
-      <c r="B89" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>196</v>
-      </c>
-      <c r="B90" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>816</v>
-      </c>
-      <c r="B91" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>198</v>
-      </c>
-      <c r="B92" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>817</v>
-      </c>
-      <c r="B93" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>200</v>
-      </c>
-      <c r="B94" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>818</v>
-      </c>
-      <c r="B95" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>202</v>
-      </c>
-      <c r="B96" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>819</v>
-      </c>
-      <c r="B97" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>204</v>
-      </c>
-      <c r="B98" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>820</v>
-      </c>
-      <c r="B99" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>206</v>
-      </c>
-      <c r="B100" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>821</v>
-      </c>
-      <c r="B101" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>208</v>
-      </c>
-      <c r="B102" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>822</v>
-      </c>
-      <c r="B103" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>210</v>
-      </c>
-      <c r="B104" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>823</v>
-      </c>
-      <c r="B105" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>212</v>
-      </c>
-      <c r="B106" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>824</v>
-      </c>
-      <c r="B107" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>214</v>
-      </c>
-      <c r="B108" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>825</v>
-      </c>
-      <c r="B109" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>216</v>
-      </c>
-      <c r="B110" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>826</v>
-      </c>
-      <c r="B111" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>218</v>
-      </c>
-      <c r="B112" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>827</v>
-      </c>
-      <c r="B113" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>220</v>
-      </c>
-      <c r="B114" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>828</v>
-      </c>
-      <c r="B115" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>829</v>
-      </c>
-      <c r="B116" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>830</v>
-      </c>
-      <c r="B117" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>831</v>
-      </c>
-      <c r="B118" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>832</v>
-      </c>
-      <c r="B119" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>833</v>
-      </c>
-      <c r="B120" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>834</v>
-      </c>
-      <c r="B121" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>835</v>
-      </c>
-      <c r="B122" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>836</v>
-      </c>
-      <c r="B123" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>837</v>
-      </c>
-      <c r="B124" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>838</v>
-      </c>
-      <c r="B125" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>839</v>
-      </c>
-      <c r="B126" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>840</v>
-      </c>
-      <c r="B127" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>841</v>
-      </c>
-      <c r="B128" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>842</v>
-      </c>
-      <c r="B129" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>843</v>
-      </c>
-      <c r="B130" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>844</v>
-      </c>
-      <c r="B131" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>845</v>
-      </c>
-      <c r="B132" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>846</v>
-      </c>
-      <c r="B133" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>847</v>
-      </c>
-      <c r="B134" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>848</v>
-      </c>
-      <c r="B135" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>849</v>
-      </c>
-      <c r="B136" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>850</v>
-      </c>
-      <c r="B137" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>851</v>
-      </c>
-      <c r="B138" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>852</v>
-      </c>
-      <c r="B139" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>853</v>
-      </c>
-      <c r="B140" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>854</v>
-      </c>
-      <c r="B141" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>855</v>
-      </c>
-      <c r="B142" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>856</v>
-      </c>
-      <c r="B143" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>858</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7ED6AA-780D-40B6-8131-5D17C4E940B1}">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="90.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B4" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>687</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>765</v>
-      </c>
-      <c r="B6" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>766</v>
-      </c>
-      <c r="B7" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>513</v>
-      </c>
-      <c r="B8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B9" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>767</v>
-      </c>
-      <c r="B10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>768</v>
-      </c>
-      <c r="B11" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>769</v>
-      </c>
-      <c r="B12" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>770</v>
-      </c>
-      <c r="B13" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>771</v>
-      </c>
-      <c r="B14" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>772</v>
-      </c>
-      <c r="B15" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>773</v>
-      </c>
-      <c r="B16" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>774</v>
-      </c>
-      <c r="B17" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>775</v>
-      </c>
-      <c r="B18" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>776</v>
-      </c>
-      <c r="B19" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>777</v>
-      </c>
-      <c r="B20" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>778</v>
-      </c>
-      <c r="B21" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>779</v>
-      </c>
-      <c r="B22" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>780</v>
-      </c>
-      <c r="B23" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>782</v>
-      </c>
-      <c r="B25" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>783</v>
-      </c>
-      <c r="B26" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>784</v>
-      </c>
-      <c r="B27" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>785</v>
-      </c>
-      <c r="B28" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>786</v>
-      </c>
-      <c r="B29" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>787</v>
-      </c>
-      <c r="B30" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>788</v>
-      </c>
-      <c r="B31" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>789</v>
-      </c>
-      <c r="B32" t="s">
-        <v>806</v>
+        <v>2307</v>
       </c>
     </row>
   </sheetData>

--- a/data/CABG Hyperglycemia Variable List.xlsx
+++ b/data/CABG Hyperglycemia Variable List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67610ABE-6E7B-4B53-9EB9-F9D99CA72D3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F650EFA-3549-47A9-A52B-32D4E8DC154A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="5" activeTab="7" xr2:uid="{D77AD16B-127C-49C6-A7A9-A7B3BB10E535}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="15" activeTab="17" xr2:uid="{D77AD16B-127C-49C6-A7A9-A7B3BB10E535}"/>
   </bookViews>
   <sheets>
     <sheet name="or_to_icu" sheetId="1" state="hidden" r:id="rId1"/>
@@ -13,23 +13,25 @@
     <sheet name="icu48h" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Index" sheetId="19" r:id="rId4"/>
     <sheet name="METACABG 20230706" sheetId="7" r:id="rId5"/>
-    <sheet name="CGM Review" sheetId="9" r:id="rId6"/>
-    <sheet name="METACABG CGM" sheetId="8" r:id="rId7"/>
-    <sheet name="cgm_summary" sheetId="3" r:id="rId8"/>
-    <sheet name="bg_longitudinal" sheetId="10" r:id="rId9"/>
-    <sheet name="cgm harmonization" sheetId="11" r:id="rId10"/>
-    <sheet name="cgm insertion dates" sheetId="12" r:id="rId11"/>
-    <sheet name="corrected key observation dates" sheetId="13" r:id="rId12"/>
-    <sheet name="insulinbolus_longitudinal" sheetId="14" r:id="rId13"/>
-    <sheet name="insulindrip_longitudinal" sheetId="15" r:id="rId14"/>
-    <sheet name="screening" sheetId="17" r:id="rId15"/>
-    <sheet name="surgery_cs" sheetId="18" r:id="rId16"/>
-    <sheet name="aha glucose" sheetId="5" state="hidden" r:id="rId17"/>
-    <sheet name="aha patient" sheetId="6" state="hidden" r:id="rId18"/>
+    <sheet name="METACABG 20230831" sheetId="20" r:id="rId6"/>
+    <sheet name="CGM Review" sheetId="9" r:id="rId7"/>
+    <sheet name="METACABG CGM" sheetId="8" r:id="rId8"/>
+    <sheet name="cgm_summary" sheetId="3" r:id="rId9"/>
+    <sheet name="bg_longitudinal" sheetId="10" r:id="rId10"/>
+    <sheet name="cgm harmonization" sheetId="11" r:id="rId11"/>
+    <sheet name="cgm insertion dates" sheetId="12" r:id="rId12"/>
+    <sheet name="corrected key observation dates" sheetId="13" r:id="rId13"/>
+    <sheet name="insulinbolus_longitudinal" sheetId="14" r:id="rId14"/>
+    <sheet name="insulindrip_longitudinal" sheetId="15" r:id="rId15"/>
+    <sheet name="screening" sheetId="17" r:id="rId16"/>
+    <sheet name="surgery_cs" sheetId="18" r:id="rId17"/>
+    <sheet name="stress hyperglycemia 4 to 24h" sheetId="21" r:id="rId18"/>
+    <sheet name="aha glucose" sheetId="5" state="hidden" r:id="rId19"/>
+    <sheet name="aha patient" sheetId="6" state="hidden" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'METACABG 20230706'!$B$1:$I$505</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'METACABG CGM'!$A$1:$J$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'METACABG CGM'!$A$1:$J$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="2238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4927" uniqueCount="2887">
   <si>
     <t>variable</t>
   </si>
@@ -6851,6 +6853,1953 @@
   </si>
   <si>
     <t>percent_time_gt_250</t>
+  </si>
+  <si>
+    <t>Height (cm)</t>
+  </si>
+  <si>
+    <t>Date of Consent</t>
+  </si>
+  <si>
+    <t>Date study med was started</t>
+  </si>
+  <si>
+    <t>Length of hospital stay prior to enrollment</t>
+  </si>
+  <si>
+    <t>Date of hospital admission</t>
+  </si>
+  <si>
+    <t>Is patient currently admitted to ICU?  (current admission)</t>
+  </si>
+  <si>
+    <t>Was patient previously admitted and discharged from ICU prior to enrollment?</t>
+  </si>
+  <si>
+    <t>ICU LoS prior to consent  (admitted and discharged prior to enrollment)</t>
+  </si>
+  <si>
+    <t>Date ICU Prior to CABG:  (fill this out only if currently admitted to ICU at randomization)</t>
+  </si>
+  <si>
+    <t>Length of ICU stay prior to enrollment  (ICU admission during consent and/or randomization)</t>
+  </si>
+  <si>
+    <t>ICU admission after CABG surgery  (ICU arrival s/p CABG)</t>
+  </si>
+  <si>
+    <t>Date and time of extubation  (extubation s/p CABG)</t>
+  </si>
+  <si>
+    <t>Length of Intubation  (from ICU arrival s/p CABG)</t>
+  </si>
+  <si>
+    <t>Transfer out to telemetry unit  (s/p CABG)</t>
+  </si>
+  <si>
+    <t>Total ICU stay post CABG</t>
+  </si>
+  <si>
+    <t>Date of discharge</t>
+  </si>
+  <si>
+    <t>Total LOS after CABG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Hospital Length of Stay (Los) since hospital admission </t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Cardiac</t>
+  </si>
+  <si>
+    <t>Specify: (choice=CAD new Diagnosis)</t>
+  </si>
+  <si>
+    <t>Specify: (choice=CAD previous procedures)</t>
+  </si>
+  <si>
+    <t>Specify: (choice=cardiac arrhythmia (AFIB))</t>
+  </si>
+  <si>
+    <t>Specify: (choice=Cardiac arrhythmia (other))</t>
+  </si>
+  <si>
+    <t>Specify: (choice=Cardiomyopathy)</t>
+  </si>
+  <si>
+    <t>Specify: (choice=CHF)</t>
+  </si>
+  <si>
+    <t>Specify: (choice=Valvulopathy)</t>
+  </si>
+  <si>
+    <t>Specify: (choice=Previous MI)</t>
+  </si>
+  <si>
+    <t>Cardiac Ejection Fraction (EF)%</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>GI Specify:</t>
+  </si>
+  <si>
+    <t>Infectious</t>
+  </si>
+  <si>
+    <t>Infectious Specify:</t>
+  </si>
+  <si>
+    <t>Pulmonary</t>
+  </si>
+  <si>
+    <t>Pulmonary Specify:</t>
+  </si>
+  <si>
+    <t>Previous Surgeries</t>
+  </si>
+  <si>
+    <t>Previous Sx Specify:</t>
+  </si>
+  <si>
+    <t>Renal</t>
+  </si>
+  <si>
+    <t>Renal Specify:</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>ACE/ARB</t>
+  </si>
+  <si>
+    <t>ASA/Plavix</t>
+  </si>
+  <si>
+    <t>Beta-Blocker</t>
+  </si>
+  <si>
+    <t>Statins</t>
+  </si>
+  <si>
+    <t>How many ETOH drinks/day?</t>
+  </si>
+  <si>
+    <t>Illicit drugs</t>
+  </si>
+  <si>
+    <t>HbA1c result</t>
+  </si>
+  <si>
+    <t>BG consent</t>
+  </si>
+  <si>
+    <t>BG Timing</t>
+  </si>
+  <si>
+    <t>BNP</t>
+  </si>
+  <si>
+    <t>Any lipid panel in the last 6 months?</t>
+  </si>
+  <si>
+    <t>Date of Lipid Profile</t>
+  </si>
+  <si>
+    <t>Total cholesterol</t>
+  </si>
+  <si>
+    <t>Triglyceride (TG)</t>
+  </si>
+  <si>
+    <t>HDL-cholesterol</t>
+  </si>
+  <si>
+    <t>LDL-cholesterol</t>
+  </si>
+  <si>
+    <t>1. Males or females 18-80 YO scheduled for CABG surgery</t>
+  </si>
+  <si>
+    <t>2. No Previous hx of diabetes?</t>
+  </si>
+  <si>
+    <t>1. Patients with hyperglycemia or previous treatment with oral antidiabetic agents or insulin.</t>
+  </si>
+  <si>
+    <t>2. Severely impaired renal function (serum creatinine ≥3.0 mg/dl or GFR &lt; 30 ml/min) or clinically significant hepatic failure.</t>
+  </si>
+  <si>
+    <t>3. Moribund patients and those at imminent risk of death (brain death or cardiac standstill).</t>
+  </si>
+  <si>
+    <t>4. Subjects with gastrointestinal obstruction or adynamic ileus or those expected to require gastrointestinal suction</t>
+  </si>
+  <si>
+    <t>5. Patients with clinically relevant pancreatic or gallbladder disease</t>
+  </si>
+  <si>
+    <t>6. Treatment with oral or injectable corticosteroid</t>
+  </si>
+  <si>
+    <t>7. Mental condition rendering the subject unable to understand the nature, scope, and possible consequences of the study.</t>
+  </si>
+  <si>
+    <t>8. Female subjects are pregnant or breast feeding at time of enrollment into the study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.	Did the subject sign and date the ICF prior to the research procedures?  </t>
+  </si>
+  <si>
+    <t>2.	Did subject provide consent for intervention trial?</t>
+  </si>
+  <si>
+    <t>Research Labs Drawn?</t>
+  </si>
+  <si>
+    <t>1. Baseline Fasting Research Labs     (48-72 hrs prior to CABG)</t>
+  </si>
+  <si>
+    <t>Intra-op Research Labs</t>
+  </si>
+  <si>
+    <t>2. Intra-op CABG Date of Collection</t>
+  </si>
+  <si>
+    <t>Temperature at time of blood draw</t>
+  </si>
+  <si>
+    <t>3. 24 hours post-CABG</t>
+  </si>
+  <si>
+    <t>4. 72-96 hours post-CABG labs</t>
+  </si>
+  <si>
+    <t>5. Follow Up Post-D/C Research Labs   (+/- 30 days post-discharge)</t>
+  </si>
+  <si>
+    <t>Date of lab tests:</t>
+  </si>
+  <si>
+    <t>Creatinine</t>
+  </si>
+  <si>
+    <t>eGFR</t>
+  </si>
+  <si>
+    <t>Albumin:</t>
+  </si>
+  <si>
+    <t>Total Bilirrubin</t>
+  </si>
+  <si>
+    <t>ALT (SGPT)</t>
+  </si>
+  <si>
+    <t>Alkaline Phosphatase</t>
+  </si>
+  <si>
+    <t>AST (SGOT)</t>
+  </si>
+  <si>
+    <t>WBC:</t>
+  </si>
+  <si>
+    <t>Surgery performed</t>
+  </si>
+  <si>
+    <t>Type of Surgery</t>
+  </si>
+  <si>
+    <t>Redo CABG</t>
+  </si>
+  <si>
+    <t>CPB</t>
+  </si>
+  <si>
+    <t>CPB starts</t>
+  </si>
+  <si>
+    <t>Cooling down starts (lowering T prior to CPB)</t>
+  </si>
+  <si>
+    <t>1. Additional procedure</t>
+  </si>
+  <si>
+    <t>2. Additional procedure</t>
+  </si>
+  <si>
+    <t>3. Additional procedure</t>
+  </si>
+  <si>
+    <t>ACS</t>
+  </si>
+  <si>
+    <t>Type of surgery</t>
+  </si>
+  <si>
+    <t>ASA status</t>
+  </si>
+  <si>
+    <t>BG admission</t>
+  </si>
+  <si>
+    <t>Creatinine pre-op</t>
+  </si>
+  <si>
+    <t>Creatinine post-op (first Creatinine after CABG)</t>
+  </si>
+  <si>
+    <t>Any Norepinephrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Time norepi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norepinephrine </t>
+  </si>
+  <si>
+    <t>Total Time- hour 2</t>
+  </si>
+  <si>
+    <t>Norepinephrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Time Norepi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norepinephrine . </t>
+  </si>
+  <si>
+    <t>Total time on Norepinephrine</t>
+  </si>
+  <si>
+    <t>Total time on Vasopressin</t>
+  </si>
+  <si>
+    <t>Total time on Epinephrine</t>
+  </si>
+  <si>
+    <t>Epinephrine (hr2)</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr3</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr4</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr5</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr6</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr7</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr8</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr9</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr10</t>
+  </si>
+  <si>
+    <t>Temperature - rectal (degrees)</t>
+  </si>
+  <si>
+    <t>Celsius or Fahrenheit?</t>
+  </si>
+  <si>
+    <t>Degrees Celsius</t>
+  </si>
+  <si>
+    <t>Mean Arterial Pressure - mm Hg</t>
+  </si>
+  <si>
+    <t>Heart Rate (ventricular response)</t>
+  </si>
+  <si>
+    <t>Respiratory Rate (non-ventilated or ventilated)</t>
+  </si>
+  <si>
+    <t>Oxygenation: FIO2 = ?</t>
+  </si>
+  <si>
+    <t>a. FIO2 ³0.5 record A-aDO2</t>
+  </si>
+  <si>
+    <t>b. FIO2 &lt; 0.5 record PaO2</t>
+  </si>
+  <si>
+    <t>Arterial pH (preferred) or Serum HCO3 (venous mEq/l) (not preferred, but may use if no ABGs)?</t>
+  </si>
+  <si>
+    <t>Arterial pH</t>
+  </si>
+  <si>
+    <t>Serum HCO3</t>
+  </si>
+  <si>
+    <t>Serum Sodium (mEq/l)</t>
+  </si>
+  <si>
+    <t>Serum Potassium (mEq/l)</t>
+  </si>
+  <si>
+    <t>Serum Creatinine (mg/dl)Double point score for acute renal failure</t>
+  </si>
+  <si>
+    <t>Hematocrit (%)</t>
+  </si>
+  <si>
+    <t>White Blood Count (total/mm3) (in 1000s)</t>
+  </si>
+  <si>
+    <t>Glasgow Coma Score (GCS) Score = 15 minus actual GCS</t>
+  </si>
+  <si>
+    <t>A. Total Acute Physiology Score (sum of 12 above points)</t>
+  </si>
+  <si>
+    <t>B. Age points (years)</t>
+  </si>
+  <si>
+    <t>C. Chronic Health Points (see below) Does the patient have a history of severe organ system insufficiency or is immunocompromised as defined below?Definitions: organ insufficiency or immunocompromised state must have been evident prior to this hospital admission and conform to the following criteria: Liver - biopsy proven cirrhosis and documented portal hypertension; episodes of past upper GI bleeding attributed to portal hypertension; or prior episodes of hepatic failure/encephalopathy/coma. Cardiovascular - New York Heart Association Class IV. Respiratory - Chronic restrictive, obstructive, or vascular disease resulting in severe exercise restriction (i.e., unable to climb stairs or perform household duties; or documented chronic hypoxia, hypercapnia, secondary polycythemia, severe pulmonary hypertension (&gt;40 mmHg), or respirator dependency. Renal - receiving chronic dialysis. Immunocompromised - the patient has received therapy that suppresses resistance to infection (e.g., immunosuppression, chemotherapy, radiation, long term or recent high dose steroids, or has a disease that is sufficiently advanced to suppress resistance to infection, e.g., leukemia, lymphoma, AIDS).</t>
+  </si>
+  <si>
+    <t>If yes assign points as follows:5 points for nonoperative or emergency postoperative patients2 points for elective postoperative patients</t>
+  </si>
+  <si>
+    <t>Total APACHE II Score (add together the points from A+B+C)</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Steroids (Intra-op or after CABG)</t>
+  </si>
+  <si>
+    <t>1. Name:</t>
+  </si>
+  <si>
+    <t>2. Name:</t>
+  </si>
+  <si>
+    <t>3. Name:</t>
+  </si>
+  <si>
+    <t>Vasopressors/ Inotropes</t>
+  </si>
+  <si>
+    <t>1) Norepinephrine</t>
+  </si>
+  <si>
+    <t>Max dose required</t>
+  </si>
+  <si>
+    <t>Total hours taken:</t>
+  </si>
+  <si>
+    <t>2) Vasopressin</t>
+  </si>
+  <si>
+    <t>3) Dopamine</t>
+  </si>
+  <si>
+    <t>4) Dobutamine</t>
+  </si>
+  <si>
+    <t>5) Milrinone</t>
+  </si>
+  <si>
+    <t>6) Other Vasopressor or Inotropes?</t>
+  </si>
+  <si>
+    <t>Which one?</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>4. Name:</t>
+  </si>
+  <si>
+    <t>5. Name:</t>
+  </si>
+  <si>
+    <t>CGM1 Time 18:</t>
+  </si>
+  <si>
+    <t>CGM2 Time 18:</t>
+  </si>
+  <si>
+    <t>CGM1 Time 19:</t>
+  </si>
+  <si>
+    <t>CGM2 Time 19:</t>
+  </si>
+  <si>
+    <t>CGM1 Time 20:</t>
+  </si>
+  <si>
+    <t>CGM2 Time 20:</t>
+  </si>
+  <si>
+    <t>CGM1 Time 21:</t>
+  </si>
+  <si>
+    <t>CGM2 Time 21:</t>
+  </si>
+  <si>
+    <t>CGM1 Time 22:</t>
+  </si>
+  <si>
+    <t>CGM2 Time 22:</t>
+  </si>
+  <si>
+    <t>CGM1 Time 23:</t>
+  </si>
+  <si>
+    <t>CGM2 Time 23:</t>
+  </si>
+  <si>
+    <t>CGM1 Time 24:</t>
+  </si>
+  <si>
+    <t>CGM2 Time 24:</t>
+  </si>
+  <si>
+    <t>CGM1 Time 25:</t>
+  </si>
+  <si>
+    <t>CGM2 Time 25:</t>
+  </si>
+  <si>
+    <t>CGM1 Time 26:</t>
+  </si>
+  <si>
+    <t>CGM2 Time 26:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time 27: </t>
+  </si>
+  <si>
+    <t>CGM1 Time 27:</t>
+  </si>
+  <si>
+    <t>CGM2 Time 27:</t>
+  </si>
+  <si>
+    <t>CGM1 Time 28:</t>
+  </si>
+  <si>
+    <t>CGM2 Time 28:</t>
+  </si>
+  <si>
+    <t>CGM1 Time 29:</t>
+  </si>
+  <si>
+    <t>CGM2 Time 29:</t>
+  </si>
+  <si>
+    <t>CGM1 Time 30:</t>
+  </si>
+  <si>
+    <t>CGM2 Time 30:</t>
+  </si>
+  <si>
+    <t>Start time (Norepinephrine)</t>
+  </si>
+  <si>
+    <t>Norepinephrine  (hr2)</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr3</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr4</t>
+  </si>
+  <si>
+    <t>Norepinephrine-drip</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr5</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr6</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr7</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr9</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr10</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr11</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr12</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr13</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr14</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr15</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr16</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr17</t>
+  </si>
+  <si>
+    <t>End time (Norepinephrine)</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr18</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr19</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr20</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr 21</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr22</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr23</t>
+  </si>
+  <si>
+    <t>Norepinephrine hr 24</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr11</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr12</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr13</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr14</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr15</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr16</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr17</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr18</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr19</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr20</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr 21</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr22</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr23</t>
+  </si>
+  <si>
+    <t>Epinephrine_hr 24</t>
+  </si>
+  <si>
+    <t>Total time on  IV Vasopressin</t>
+  </si>
+  <si>
+    <t>Total time Epinephrine</t>
+  </si>
+  <si>
+    <t>Readmission to ICU</t>
+  </si>
+  <si>
+    <t>Re-intubation</t>
+  </si>
+  <si>
+    <t>Respiratory failure</t>
+  </si>
+  <si>
+    <t>Arrhythmias (choice=Afib/Aflutter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify (1): </t>
+  </si>
+  <si>
+    <t>Specify (2):</t>
+  </si>
+  <si>
+    <t>Did the patient require any inotropes or vasopressors?</t>
+  </si>
+  <si>
+    <t>Type of cardiogenic shock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> length (hrs) of pressors/inotropes use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart Failure  </t>
+  </si>
+  <si>
+    <t>Any other complication?</t>
+  </si>
+  <si>
+    <t>Acute Kidney Injury</t>
+  </si>
+  <si>
+    <t>Did patient require dialysis?</t>
+  </si>
+  <si>
+    <t>Bleeding from Surgical site</t>
+  </si>
+  <si>
+    <t>Surgical Site Bleeding site? (choice=Sternotomy)</t>
+  </si>
+  <si>
+    <t>Surgical Site Bleeding site? (choice=Hemothorax)</t>
+  </si>
+  <si>
+    <t>Surgical Site Bleeding site? (choice=Graft source place)</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>DVT</t>
+  </si>
+  <si>
+    <t>GI bleed</t>
+  </si>
+  <si>
+    <t>Hyperkalemia</t>
+  </si>
+  <si>
+    <t>Did patient receive insulin to treat hyperkalemia?</t>
+  </si>
+  <si>
+    <t>Regular Insulin dose for hyperkalemia</t>
+  </si>
+  <si>
+    <t>Timing of Insulin administration for hyperkalemia</t>
+  </si>
+  <si>
+    <t>Hyperkalemia: Did patient receive dextrose with insulin administration?</t>
+  </si>
+  <si>
+    <t>PBRC transfusion</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>Surgical Re-Intervention</t>
+  </si>
+  <si>
+    <t>Which surgery?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Other </t>
+  </si>
+  <si>
+    <t>Any Side Effects to Study Medication?</t>
+  </si>
+  <si>
+    <t>Allergies</t>
+  </si>
+  <si>
+    <t>Abdominal Pain</t>
+  </si>
+  <si>
+    <t>Decreased Appetite</t>
+  </si>
+  <si>
+    <t>Diarrhea</t>
+  </si>
+  <si>
+    <t>Headaches</t>
+  </si>
+  <si>
+    <t>Nausea</t>
+  </si>
+  <si>
+    <t>Pancreatitis (Atlanta Criteria)</t>
+  </si>
+  <si>
+    <t>Vomiting</t>
+  </si>
+  <si>
+    <t>Adverse Event Notes</t>
+  </si>
+  <si>
+    <t>Any suspected nosocomial infections?</t>
+  </si>
+  <si>
+    <t>Infection number</t>
+  </si>
+  <si>
+    <t>Date of suspected infection onset</t>
+  </si>
+  <si>
+    <t>Maximum body temperature (degrees C)</t>
+  </si>
+  <si>
+    <t>1. Was a culture related to this infection obtained?</t>
+  </si>
+  <si>
+    <t>2. Was a culture related to this infection positive?</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Methacillin-susceptible Staph aureus (MSSA))</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Methacillin-resistant Staph aureus (MRSA))</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Coagulase-neg Staph species)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Vancomycin-susceptible Enterococcus faecalis)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Vancomycin-resistant Enterococcus faecalis)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Vancomycin-susceptible Enterococcus faecium)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Vancomycin-resistant Enterococcus faecium)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Klebsiella pneumonia)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Other Klebsiella species)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Pseudomonas aeruginosa)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Streptococcus pneumoniae)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Echerichia coli)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Acinetobacter baumannii)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Enterobacter cloacae)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Enterbacter aerogenes)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Clostridium difficile)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Candida albicans)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Candida glabrata)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Candida tropicalis)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Other fungal species)</t>
+  </si>
+  <si>
+    <t>Cultured Organism (choice=Other)</t>
+  </si>
+  <si>
+    <t>Specify organism</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MSSA (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MSSA (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MSSA (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MSSA (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MSSA (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MSSA (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MSSA (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MSSA (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MRSA (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MRSA (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MRSA (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MRSA (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MRSA (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MRSA (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MRSA (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - MRSA (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code -Coagulase-neg Staph species     (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code -Coagulase-neg Staph species     (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code -Coagulase-neg Staph species     (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code -Coagulase-neg Staph species     (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code -Coagulase-neg Staph species     (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code -Coagulase-neg Staph species     (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code -Coagulase-neg Staph species     (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code -Coagulase-neg Staph species     (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecalis     (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecalis     (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecalis     (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecalis     (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecalis     (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecalis     (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecalis     (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecalis     (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecalis     (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecalis     (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecalis     (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecalis     (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecalis     (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecalis     (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecalis     (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecalis     (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecium     (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecium     (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecium     (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecium     (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecium     (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecium     (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecium     (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-susceptible Enterococcus faecium     (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecium     (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecium     (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecium     (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecium     (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecium     (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecium     (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecium     (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Vancomycin-resistant Enterococcus faecium     (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Klebsiella pneumonia     (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Klebsiella pneumonia     (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Klebsiella pneumonia     (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Klebsiella pneumonia     (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Klebsiella pneumonia     (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Klebsiella pneumonia     (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Klebsiella pneumonia     (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Klebsiella pneumonia     (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other Klebsiella species (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other Klebsiella species (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other Klebsiella species (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other Klebsiella species (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other Klebsiella species (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other Klebsiella species (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other Klebsiella species (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other Klebsiella species (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Pseudomonas aeruginosa     (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Pseudomonas aeruginosa     (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Pseudomonas aeruginosa     (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Pseudomonas aeruginosa     (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Pseudomonas aeruginosa     (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Pseudomonas aeruginosa     (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Pseudomonas aeruginosa     (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Pseudomonas aeruginosa     (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Streptococcus pneumoniae     (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Streptococcus pneumoniae     (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Streptococcus pneumoniae     (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Streptococcus pneumoniae     (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Streptococcus pneumoniae     (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Streptococcus pneumoniae     (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Streptococcus pneumoniae     (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Streptococcus pneumoniae     (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - E. coli (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - E. coli (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - E. coli (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - E. coli (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - E. coli (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - E. coli (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - E. coli (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - E. coli (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Acinetobacter baumannii     (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Acinetobacter baumannii     (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Acinetobacter baumannii     (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Acinetobacter baumannii     (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Acinetobacter baumannii     (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Acinetobacter baumannii     (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Acinetobacter baumannii     (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Acinetobacter baumannii     (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterobacter cloacae     (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterobacter cloacae     (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterobacter cloacae     (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterobacter cloacae     (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterobacter cloacae     (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterobacter cloacae     (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterobacter cloacae     (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterobacter cloacae     (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterbacter aerogenes     (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterbacter aerogenes     (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterbacter aerogenes     (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterbacter aerogenes     (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterbacter aerogenes     (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterbacter aerogenes     (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterbacter aerogenes     (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Enterbacter aerogenes     (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Clostridium difficile (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Clostridium difficile (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Clostridium difficile (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Clostridium difficile (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Clostridium difficile (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Clostridium difficile (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Clostridium difficile (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Clostridium difficile (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida albicans     (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida albicans     (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida albicans     (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida albicans     (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida albicans     (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida albicans     (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida albicans     (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida albicans     (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida glabrata     (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida glabrata     (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida glabrata     (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida glabrata     (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida glabrata     (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida glabrata     (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida glabrata     (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida glabrata     (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida tropicalis (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida tropicalis (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida tropicalis (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida tropicalis (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida tropicalis (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida tropicalis (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida tropicalis (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Candida tropicalis (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other fungal species (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other fungal species (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other fungal species (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other fungal species (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other fungal species (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other fungal species (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other fungal species (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other fungal species (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other species (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other species (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other species (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other species (choice=Sputum/Tracheal aspirate)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other species (choice=BAL)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other species (choice=CSF)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other species (choice=Stool)</t>
+  </si>
+  <si>
+    <t>Culture Site Code - Other species (choice=Catheter tip)</t>
+  </si>
+  <si>
+    <t>Extended spectrum beta lactamase producer</t>
+  </si>
+  <si>
+    <t>Within 24 hours</t>
+  </si>
+  <si>
+    <t>1. Is this a new infection at the same site as a previous infection in the patient?</t>
+  </si>
+  <si>
+    <t>2a. Has there been at least a two week interval between infections?</t>
+  </si>
+  <si>
+    <t>b. Is there evidence of resolution of the initial infection (i.e. defervescence after antimicrobial agents started, interval improvement in other clinical signs/symptoms?</t>
+  </si>
+  <si>
+    <t>c. Is there a combination of new signs and symptoms and/or radiographic evidence or other diagnostic testing as outlined in the CDC guidelines?</t>
+  </si>
+  <si>
+    <t>d. Is there completion of the initial antibiotic course?</t>
+  </si>
+  <si>
+    <t>e. If this infection is a bloodstream infection (BSI) with the same organism, has there been an interval negative blood culture?</t>
+  </si>
+  <si>
+    <t>1. Was antibiotic started for this suspected infection?</t>
+  </si>
+  <si>
+    <t>How many antibiotics?</t>
+  </si>
+  <si>
+    <t>1. Name of antibiotic</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>Stop date</t>
+  </si>
+  <si>
+    <t>2. Name of antibiotic</t>
+  </si>
+  <si>
+    <t>3. Name of antibiotic</t>
+  </si>
+  <si>
+    <t>4. Name of antibiotic</t>
+  </si>
+  <si>
+    <t>5. Name of antibiotic</t>
+  </si>
+  <si>
+    <t>Was the line removed?</t>
+  </si>
+  <si>
+    <t>Was the line replaced?</t>
+  </si>
+  <si>
+    <t>Date new line placed</t>
+  </si>
+  <si>
+    <t>Type of lines</t>
+  </si>
+  <si>
+    <t>3. Any resolution?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify  </t>
+  </si>
+  <si>
+    <t>Did participant have any infections?   (Infections that arose 48 hours after patient's randomization)</t>
+  </si>
+  <si>
+    <t>Hospital (clinical) diagnosis of infection</t>
+  </si>
+  <si>
+    <t>Site of infection (check all that apply) (choice=UTI)</t>
+  </si>
+  <si>
+    <t>Site of infection (check all that apply) (choice=Pneumonia)</t>
+  </si>
+  <si>
+    <t>Site of infection (check all that apply) (choice=Blood stream infection (BSI))</t>
+  </si>
+  <si>
+    <t>Site of infection (check all that apply) (choice=Surgical site infection (SSI))</t>
+  </si>
+  <si>
+    <t>Site of infection (check all that apply) (choice=Bone joint infection (BJ))</t>
+  </si>
+  <si>
+    <t>Site of infection (check all that apply) (choice=Central nervous infection (CNS))</t>
+  </si>
+  <si>
+    <t>Site of infection (check all that apply) (choice=Cardiovascular system infection (CVS))</t>
+  </si>
+  <si>
+    <t>Site of infection (check all that apply) (choice=Eye, ear, nose, throat, or mouth infection (EENT))</t>
+  </si>
+  <si>
+    <t>Site of infection (check all that apply) (choice=Gastrointestinal system infection (GI))</t>
+  </si>
+  <si>
+    <t>Site of infection (check all that apply) (choice=Lower respiratory tract infection other than pneumonia (LRI))</t>
+  </si>
+  <si>
+    <t>Site of infection (check all that apply) (choice=Reproductive tract infection (REPR))</t>
+  </si>
+  <si>
+    <t>Site of infection (check all that apply) (choice=Skin and soft tissue infection (SST))</t>
+  </si>
+  <si>
+    <t>Site of infection (check all that apply) (choice=Systemic infection (SYS))</t>
+  </si>
+  <si>
+    <t>Site of infection (check all that apply) (choice=Other)</t>
+  </si>
+  <si>
+    <t>Type of SSI (choice=Deep sternal wound infection (DSWI))</t>
+  </si>
+  <si>
+    <t>Type of SSI (choice=Superficial sternal wound infection (SEWI))</t>
+  </si>
+  <si>
+    <t>Other site of infection</t>
+  </si>
+  <si>
+    <t>Type of infection (choice=Gram pos)</t>
+  </si>
+  <si>
+    <t>Type of infection (choice=Gram neg)</t>
+  </si>
+  <si>
+    <t>Type of infection (choice=MRSA)</t>
+  </si>
+  <si>
+    <t>Type of infection (choice=Fungal)</t>
+  </si>
+  <si>
+    <t>Type of infection (choice=Viral)</t>
+  </si>
+  <si>
+    <t>Type of infection (choice=Anaerobic)</t>
+  </si>
+  <si>
+    <t>Source of infection (choice=Blood)</t>
+  </si>
+  <si>
+    <t>Source of infection (choice=Wound)</t>
+  </si>
+  <si>
+    <t>Source of infection (choice=Urine)</t>
+  </si>
+  <si>
+    <t>Source of infection (choice=Other)</t>
+  </si>
+  <si>
+    <t>Other source of infection</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Were there any issues related to sensor insertion?</t>
+  </si>
+  <si>
+    <t>Bleeding?</t>
+  </si>
+  <si>
+    <t>Infection?</t>
+  </si>
+  <si>
+    <t>Pain?</t>
+  </si>
+  <si>
+    <t>Skin irritation form wearing adhesive patch?</t>
+  </si>
+  <si>
+    <t>Did sensor wires break?</t>
+  </si>
+  <si>
+    <t>If needed, please add notes related to issues with sensors:</t>
+  </si>
+  <si>
+    <t>Any Procedures after CGM insertion? (choice=None)</t>
+  </si>
+  <si>
+    <t>Any Procedures after CGM insertion? (choice=Angiogram)</t>
+  </si>
+  <si>
+    <t>Any Procedures after CGM insertion? (choice=CT scan)</t>
+  </si>
+  <si>
+    <t>Any Procedures after CGM insertion? (choice=LHC)</t>
+  </si>
+  <si>
+    <t>Any Procedures after CGM insertion? (choice=X rays)</t>
+  </si>
+  <si>
+    <t>Any Procedures after CGM insertion? (choice=Other)</t>
+  </si>
+  <si>
+    <t>Angiogram date and time</t>
+  </si>
+  <si>
+    <t>How Many CT scans?</t>
+  </si>
+  <si>
+    <t>CT #1 scan date and time</t>
+  </si>
+  <si>
+    <t>CT #2 scan date and time</t>
+  </si>
+  <si>
+    <t>LHC date and time</t>
+  </si>
+  <si>
+    <t>X rays, How many?</t>
+  </si>
+  <si>
+    <t>X ray #1 date and time</t>
+  </si>
+  <si>
+    <t>X ray #2 day and time</t>
+  </si>
+  <si>
+    <t>Xray # 3 date and time</t>
+  </si>
+  <si>
+    <t>Other procedure, How many?</t>
+  </si>
+  <si>
+    <t>Other #1  Procedure's Name</t>
+  </si>
+  <si>
+    <t>Other #1  date and time</t>
+  </si>
+  <si>
+    <t>Other #2  Procedure's Name</t>
+  </si>
+  <si>
+    <t>Other # 2 date and time</t>
+  </si>
+  <si>
+    <t>Other #3  Procedure's Name</t>
+  </si>
+  <si>
+    <t>Other #3 date and time </t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Cause of death</t>
+  </si>
+  <si>
+    <t>Patient's discharge location</t>
+  </si>
+  <si>
+    <t>Home health care</t>
+  </si>
+  <si>
+    <t>Discharge treatment (choice=Insulin only)</t>
+  </si>
+  <si>
+    <t>Type of insulin (choice=Basal)</t>
+  </si>
+  <si>
+    <t>Type of insulin (choice=Prandial)</t>
+  </si>
+  <si>
+    <t>Basal insulin (choice=Detemir)</t>
+  </si>
+  <si>
+    <t>Basal insulin (choice=Glargine)</t>
+  </si>
+  <si>
+    <t>Basal insulin (choice=NPH)</t>
+  </si>
+  <si>
+    <t>Prandial insulin  (choice=Lispro)</t>
+  </si>
+  <si>
+    <t>Prandial insulin  (choice=Aspart)</t>
+  </si>
+  <si>
+    <t>Prandial insulin  (choice=Glulisine)</t>
+  </si>
+  <si>
+    <t>Prandial insulin  (choice=Regular)</t>
+  </si>
+  <si>
+    <t>Fixed dose</t>
+  </si>
+  <si>
+    <t>Patient paid on discharge</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Failure to follow protocol</t>
+  </si>
+  <si>
+    <t>Any adverse or reportable events?</t>
+  </si>
+  <si>
+    <t>How many reportable events?</t>
+  </si>
+  <si>
+    <t>What type of event? (choice=Adverse Events (AEs))</t>
+  </si>
+  <si>
+    <t>What type of event? (choice=Unanticipated Problems (UPs))</t>
+  </si>
+  <si>
+    <t>Start dates of Event</t>
+  </si>
+  <si>
+    <t>Stop dates of the event</t>
+  </si>
+  <si>
+    <t>Serious AE?</t>
+  </si>
+  <si>
+    <t>Grade of severity</t>
+  </si>
+  <si>
+    <t>Relationship to drug</t>
+  </si>
+  <si>
+    <t>Anticipated Event?</t>
+  </si>
+  <si>
+    <t>Action taken with the drug</t>
+  </si>
+  <si>
+    <t>Was the AE/UP reported to the sponsor?</t>
+  </si>
+  <si>
+    <t>Date of Report</t>
+  </si>
+  <si>
+    <t>Was the AE/UP reported to the IRB?</t>
+  </si>
+  <si>
+    <t>Date AE report to IRB</t>
+  </si>
+  <si>
+    <t>What type of Event 2? (choice=Adverse Events (AEs))</t>
+  </si>
+  <si>
+    <t>What type of Event 2? (choice=Unanticipated Problems (UPs))</t>
+  </si>
+  <si>
+    <t>Start Date (Event 2)</t>
+  </si>
+  <si>
+    <t>Stop dates of event 2</t>
+  </si>
+  <si>
+    <t>Serious Adverse Event (2)?</t>
+  </si>
+  <si>
+    <t>Grade of Severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticipated Event? </t>
+  </si>
+  <si>
+    <t>Action taken with drug</t>
+  </si>
+  <si>
+    <t>Date of Report AE2</t>
+  </si>
+  <si>
+    <t>Date RE 2 report to IRB</t>
+  </si>
+  <si>
+    <t>If any adverse or reportable events please explain</t>
+  </si>
+  <si>
+    <t>Any Protocol Deviations?</t>
+  </si>
+  <si>
+    <t>If any protocol deviations, please explain</t>
+  </si>
+  <si>
+    <t>Date of Follow Up</t>
+  </si>
+  <si>
+    <t>Type of Follow Up</t>
+  </si>
+  <si>
+    <t>Complications (choice=None)</t>
+  </si>
+  <si>
+    <t>Complications (choice=Death)</t>
+  </si>
+  <si>
+    <t>Complications (choice=ER visit)</t>
+  </si>
+  <si>
+    <t>Complications (choice=Infection (not requiring readmission))</t>
+  </si>
+  <si>
+    <t>Complications (choice=Readmission)</t>
+  </si>
+  <si>
+    <t>Complications (choice=Other)</t>
+  </si>
+  <si>
+    <t>If Other complication, please explain</t>
+  </si>
+  <si>
+    <t>Type of Infection NOT requiring hospital readmission</t>
+  </si>
+  <si>
+    <t>Other Infection after discharge</t>
+  </si>
+  <si>
+    <t>Death Reason</t>
+  </si>
+  <si>
+    <t>Was the patient readmitted?</t>
+  </si>
+  <si>
+    <t>Reason for readmission (choice=Cardiac arrest)</t>
+  </si>
+  <si>
+    <t>Reason for readmission (choice=Cardiac arrhythmia)</t>
+  </si>
+  <si>
+    <t>Reason for readmission (choice=DVT)</t>
+  </si>
+  <si>
+    <t>Reason for readmission (choice=Heart failure)</t>
+  </si>
+  <si>
+    <t>Reason for readmission (choice=Infection)</t>
+  </si>
+  <si>
+    <t>Reason for readmission (choice=MI)</t>
+  </si>
+  <si>
+    <t>Reason for readmission (choice=Needed another surgery)</t>
+  </si>
+  <si>
+    <t>Reason for readmission (choice=PBRC transfusion)</t>
+  </si>
+  <si>
+    <t>Reason for readmission (choice=PE)</t>
+  </si>
+  <si>
+    <t>Reason for readmission (choice=Stroke)</t>
+  </si>
+  <si>
+    <t>Reason for readmission (choice=Other)</t>
+  </si>
+  <si>
+    <t>Type of Infection (Hospital Readmission)</t>
+  </si>
+  <si>
+    <t>Notes:   Other type of infection that required hospital readmission</t>
+  </si>
+  <si>
+    <t>Other reason</t>
+  </si>
+  <si>
+    <t>Closeout date</t>
+  </si>
+  <si>
+    <t>Reason to end study</t>
+  </si>
+  <si>
+    <t>Screen failure/randomized</t>
+  </si>
+  <si>
+    <t>SF-Randomized-Received IP?</t>
+  </si>
+  <si>
+    <t>Reason for Screen Failure:</t>
+  </si>
+  <si>
+    <t>Reason for withdrawing:</t>
+  </si>
+  <si>
+    <t>Reason for withdrawing</t>
+  </si>
+  <si>
+    <t>Was there any data/visit missed due to COVID-19?</t>
+  </si>
+  <si>
+    <t>Type of data not collected (choice=Blood samples at 72-96 hrs post-surgery)</t>
+  </si>
+  <si>
+    <t>Type of data not collected (choice=Blood samples at ~30 days post-surgery)</t>
+  </si>
+  <si>
+    <t>Type of data not collected (choice=Visit and blood samples at ~30 days post-surgery)</t>
+  </si>
+  <si>
+    <t>Close Out Notes</t>
+  </si>
+  <si>
+    <t>mean_bg</t>
+  </si>
+  <si>
+    <t>n_bg</t>
+  </si>
+  <si>
+    <t>n_bg_ge140</t>
+  </si>
+  <si>
+    <t>mean_time_since_surgery_end_mins</t>
+  </si>
+  <si>
+    <t>stress_hyperglycemia</t>
+  </si>
+  <si>
+    <t>Number of blood glucose measurements</t>
+  </si>
+  <si>
+    <t>Mean POCT blood glucose (mg/dL)</t>
+  </si>
+  <si>
+    <t>Number of POCT blood glucose measurements &gt;= 140 mg/dL</t>
+  </si>
+  <si>
+    <t>Mean time since end of surgery (minutes)</t>
+  </si>
+  <si>
+    <t>Stress hyperglycemia (1: Mean &gt;=140, 0: Mean &lt; 140)</t>
   </si>
 </sst>
 </file>
@@ -6977,7 +8926,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7002,6 +8951,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8106,6 +10065,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F51FC5-61D6-4D3D-A84E-E413F531C436}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3487DC-80B1-42DB-B16C-C7930D5F410A}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -8187,7 +10236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D805C213-73B7-4BDA-9D53-9A17290325F0}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -8277,7 +10326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4A8C48-B656-4918-9751-2A06B95AB2C6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -8327,7 +10376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2DA843-64A0-4D27-8FB3-0127EBCBA411}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -8418,7 +10467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40644621-1763-4A03-B26A-EAFD1B94CF35}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -8549,7 +10598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7DBC14-5454-4391-A166-41E8DEDC2E26}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -8639,12 +10688,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7BF4C5-AF7C-4E65-B822-62C042B31EF5}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8713,7 +10762,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1AF4F-5AA5-4979-BAAF-416AE60C7B2E}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F730E738-71E8-4BB9-9BDD-FAFBA3CE3EC3}">
   <dimension ref="A1:B146"/>
   <sheetViews>
@@ -9777,272 +11900,6 @@
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>717</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7ED6AA-780D-40B6-8131-5D17C4E940B1}">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="90.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>623</v>
-      </c>
-      <c r="B4" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>546</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>624</v>
-      </c>
-      <c r="B6" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>625</v>
-      </c>
-      <c r="B7" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>513</v>
-      </c>
-      <c r="B8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B9" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>626</v>
-      </c>
-      <c r="B10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>627</v>
-      </c>
-      <c r="B11" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>628</v>
-      </c>
-      <c r="B12" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>629</v>
-      </c>
-      <c r="B13" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>630</v>
-      </c>
-      <c r="B14" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>631</v>
-      </c>
-      <c r="B15" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B16" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>633</v>
-      </c>
-      <c r="B17" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>634</v>
-      </c>
-      <c r="B18" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>635</v>
-      </c>
-      <c r="B19" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>636</v>
-      </c>
-      <c r="B20" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>637</v>
-      </c>
-      <c r="B21" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>638</v>
-      </c>
-      <c r="B22" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>639</v>
-      </c>
-      <c r="B23" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>641</v>
-      </c>
-      <c r="B25" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>642</v>
-      </c>
-      <c r="B26" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>643</v>
-      </c>
-      <c r="B27" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>644</v>
-      </c>
-      <c r="B28" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>645</v>
-      </c>
-      <c r="B29" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>646</v>
-      </c>
-      <c r="B30" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>647</v>
-      </c>
-      <c r="B31" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>648</v>
-      </c>
-      <c r="B32" t="s">
-        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -10100,6 +11957,272 @@
       </c>
       <c r="B5" t="s">
         <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7ED6AA-780D-40B6-8131-5D17C4E940B1}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="90.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>624</v>
+      </c>
+      <c r="B6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>627</v>
+      </c>
+      <c r="B11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>628</v>
+      </c>
+      <c r="B12" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>629</v>
+      </c>
+      <c r="B13" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>630</v>
+      </c>
+      <c r="B14" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>631</v>
+      </c>
+      <c r="B15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>632</v>
+      </c>
+      <c r="B16" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>633</v>
+      </c>
+      <c r="B17" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>634</v>
+      </c>
+      <c r="B18" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>635</v>
+      </c>
+      <c r="B19" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>636</v>
+      </c>
+      <c r="B20" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>637</v>
+      </c>
+      <c r="B21" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>638</v>
+      </c>
+      <c r="B22" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>639</v>
+      </c>
+      <c r="B23" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>641</v>
+      </c>
+      <c r="B25" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>642</v>
+      </c>
+      <c r="B26" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>643</v>
+      </c>
+      <c r="B27" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>644</v>
+      </c>
+      <c r="B28" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>645</v>
+      </c>
+      <c r="B29" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>646</v>
+      </c>
+      <c r="B30" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>647</v>
+      </c>
+      <c r="B31" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>648</v>
+      </c>
+      <c r="B32" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -11760,7 +13883,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -19004,10 +21127,10 @@
   </sheetData>
   <autoFilter ref="B1:I505" xr:uid="{703C9B0B-97AA-487D-AE9F-E4759093532F}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D480:D487">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19015,6 +21138,6958 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCC2744-69B8-4D6A-A784-82BC3E543907}">
+  <dimension ref="A1:C1385"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1380" sqref="C1380"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A484" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A486" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A487" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A488" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A489" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A490" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A491" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A492" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A493" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A494" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A500" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A502" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A503" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A504" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A505" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A506" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A507" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A508" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A509" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A510" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A511" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A512" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A513" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A514" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A515" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A516" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A517" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A518" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A519" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A520" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A521" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A522" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A523" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A524" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A525" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A526" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A527" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A528" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A529" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A530" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A531" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A532" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A533" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A534" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A535" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A536" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A537" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A538" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A539" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A540" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A541" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A542" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A543" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A544" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A545" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A546" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A547" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A548" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A549" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A550" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A551" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A552" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A553" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A554" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A555" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A556" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A557" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A558" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A559" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A560" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A561" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A562" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A563" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A564" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A565" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A566" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A567" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A568" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A569" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A570" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A571" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A572" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A573" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A574" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A575" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A576" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A577" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A578" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A579" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A580" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A581" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A582" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A583" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A584" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A585" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A586" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A587" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A588" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A589" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A590" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A591" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A592" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A593" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A594" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A595" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A596" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A597" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A598" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A599" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A600" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A601" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A602" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A603" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A604" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A605" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A606" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A607" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A608" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A609" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A610" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A611" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A612" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A613" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A614" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A615" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A616" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A617" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A618" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A619" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A620" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A621" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A622" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A623" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A624" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A625" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A626" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A627" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A628" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A629" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A630" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A631" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A632" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A633" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A634" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A635" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A636" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A637" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A638" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A639" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A640" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A641" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A642" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A643" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A644" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A645" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A646" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A647" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A648" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A649" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A650" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A651" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A652" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A653" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A654" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A655" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A656" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A657" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A658" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A659" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A660" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A661" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A662" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A663" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A664" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A665" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A666" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A667" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A668" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A669" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A670" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A671" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A672" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A673" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A674" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A675" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A676" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A677" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A678" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A679" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A680" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A681" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A682" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A683" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A684" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A685" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A686" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A687" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A688" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A689" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A690" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A691" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A692" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A693" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A694" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A695" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A696" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A697" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A698" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A699" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A700" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A701" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A702" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A703" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A704" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A705" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A706" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A707" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A708" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A709" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A710" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A711" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A712" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A713" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A714" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A715" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A716" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A717" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A718" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A719" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A720" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A721" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A722" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A723" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A724" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A725" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A726" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A727" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A728" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A729" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A730" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A731" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A732" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A733" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A734" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A735" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A736" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A737" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A738" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A739" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A740" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A741" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A742" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A743" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A744" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A745" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A746" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A747" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A748" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A749" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A750" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A751" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A752" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A753" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A754" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A755" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A756" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A757" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A758" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A759" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A760" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A761" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A762" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A763" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A764" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A765" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A766" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A767" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A768" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A769" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A770" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A771" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A772" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A773" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A774" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A775" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A776" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A777" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A778" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A779" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A780" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A781" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A782" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A783" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A784" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A785" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A786" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A787" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A788" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A789" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A790" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A791" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A792" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A793" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A794" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A795" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A796" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A797" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A798" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A799" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A800" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A801" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A802" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A803" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A804" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A805" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A806" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A807" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A808" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A809" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A810" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A811" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A812" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A813" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A814" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A815" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A816" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A817" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A818" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A819" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A820" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A821" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A822" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A823" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A824" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A825" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A826" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A827" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A828" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A829" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A830" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A831" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A832" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A833" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A834" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A835" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A836" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A837" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A838" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A839" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A840" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A841" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A842" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A843" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A844" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A845" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A846" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A847" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A848" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A849" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A850" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A851" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A852" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A853" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A854" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A855" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A856" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A857" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A858" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A859" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A860" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A861" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A862" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A863" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A864" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A865" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A866" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A867" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A868" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A869" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A870" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A871" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A872" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A873" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A874" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A875" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A876" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A877" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A878" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A879" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A880" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A881" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A882" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A883" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A884" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A885" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A886" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A887" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A888" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A889" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A890" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A891" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A892" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A893" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A894" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A895" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A896" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A897" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A898" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A899" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A900" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A901" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A902" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A903" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A904" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A905" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A906" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A907" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A908" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A909" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A910" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A911" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A912" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A913" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A914" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A915" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A916" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A917" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A918" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A919" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A920" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A921" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A922" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A923" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A924" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A925" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A926" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A927" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A928" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A929" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A930" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A931" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A932" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A933" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A934" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A935" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A936" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A937" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A938" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A939" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A940" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A941" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A942" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A943" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A944" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A945" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A946" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A947" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A948" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A949" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A950" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A951" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A952" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A953" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A954" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A955" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A956" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A957" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A958" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A959" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A960" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A961" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A962" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A963" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A964" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A965" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A966" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A967" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A968" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A969" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A970" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A971" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A972" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A973" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A974" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A975" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A976" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A977" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A978" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A979" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A980" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A981" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A982" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A983" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A984" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A985" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A986" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A987" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A988" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A989" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A990" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A991" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A992" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A993" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A994" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A995" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A996" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A997" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A998" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A999" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1000" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1001" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1002" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1003" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1004" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1005" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1006" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1007" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1008" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1009" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1010" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1011" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1012" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1013" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1014" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1015" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1016" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1017" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1018" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1019" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1020" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1021" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1022" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1023" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1024" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1025" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1026" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1027" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1028" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1029" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1030" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1031" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1032" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1033" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1034" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1035" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1036" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1037" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1038" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1039" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1040" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1041" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1042" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1043" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1044" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1045" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1046" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1047" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1048" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1049" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1050" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1051" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1052" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1053" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1054" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1055" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1056" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1057" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1058" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1059" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1060" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1061" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1062" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1063" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1064" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1065" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1066" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1067" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1068" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1069" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1070" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1071" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1072" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1073" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1074" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1075" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1076" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1077" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1078" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1079" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1080" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1081" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1082" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1083" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1084" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1085" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1086" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1087" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1088" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1089" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1090" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1091" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1092" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1093" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1094" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1095" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1096" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1097" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1098" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1099" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1100" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1101" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1102" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1103" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1104" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1105" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1106" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1107" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1108" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1109" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1110" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1111" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1112" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1113" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1114" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1115" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1116" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1117" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1118" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1119" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1120" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1121" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1122" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1123" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1124" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1125" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1126" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1127" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1128" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1129" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1130" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1131" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1132" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1133" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1134" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1135" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1136" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1137" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1138" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1139" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1140" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1141" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1142" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1143" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1144" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1145" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1146" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1147" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1148" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1149" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1150" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1151" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1152" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1153" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1154" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1155" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1156" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1157" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1158" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1159" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1160" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1161" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1162" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1163" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1164" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1165" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1166" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1167" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1168" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1169" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1170" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1171" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1172" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1173" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1174" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1175" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1176" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1177" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1178" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1179" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1180" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1181" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1182" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1183" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1184" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1185" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1186" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1187" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1188" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1189" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1190" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1191" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1192" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1193" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1194" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1195" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1196" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1197" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1198" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1199" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1200" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1201" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1202" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1203" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1204" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1205" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1206" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1207" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1208" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1209" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1210" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1211" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1212" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1213" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1214" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1215" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1216" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1217" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1218" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1219" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1220" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1221" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1222" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1223" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1224" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1225" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1226" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1227" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1228" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1229" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1230" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1231" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1232" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1233" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1234" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1235" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1236" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1237" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1238" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1239" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1240" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1241" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1242" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1243" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1244" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1245" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1246" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1247" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1248" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1249" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1250" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1251" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1252" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1253" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1254" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1255" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1256" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1257" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1258" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1259" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1260" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1261" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1262" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1263" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1264" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1265" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1266" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1267" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1268" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1269" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1270" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1271" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1272" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1273" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1274" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1275" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1276" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1277" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1278" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1279" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1280" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1281" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1282" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1283" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1284" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1285" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1286" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1287" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1288" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1289" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1290" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1291" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1292" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1293" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1294" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1295" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1296" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1297" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1298" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1299" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1300" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1301" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1302" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1303" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1304" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1305" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1306" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1307" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1308" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1309" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1310" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1311" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1312" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1313" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1314" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1315" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1316" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1317" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1318" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1319" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1320" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1321" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1322" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1323" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1324" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1325" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1326" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1327" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1328" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1329" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1330" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1331" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1332" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1333" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1334" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1335" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1336" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1337" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1338" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1339" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1340" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1341" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1342" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1343" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1344" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1345" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1346" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1347" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1348" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1349" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1350" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1351" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1352" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1353" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1354" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1355" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1356" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1357" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1358" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1359" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1360" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1361" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1362" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1363" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1364" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1365" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1366" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1367" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1368" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1369" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1370" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1371" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1372" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1373" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1374" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1375" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1376" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1377" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1378" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1379" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1380" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1381" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1382" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1383" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1384" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1385" t="s">
+        <v>587</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3968B7-0CC5-408C-9F51-9FA8FEC29FCC}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -20600,7 +29675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E98623B-9B8A-4357-9931-78B3E1D582D2}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -20609,7 +29684,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22404,14 +31479,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07280A18-1BD1-4FDB-AB03-8EC8E7A45C01}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -22563,94 +31638,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F51FC5-61D6-4D3D-A84E-E413F531C436}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>621</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2170</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2171</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2172</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>2173</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>2156</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/CABG Hyperglycemia Variable List.xlsx
+++ b/data/CABG Hyperglycemia Variable List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDA32A2-20D7-4944-AD54-61509A2D8710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B978AC98-631D-48B9-A728-76ED832C453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3210" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="5" xr2:uid="{D170740D-F730-4FE0-A2DA-00C8EA3E9EA2}"/>
+    <workbookView xWindow="-16320" yWindow="-15840" windowWidth="16440" windowHeight="28440" firstSheet="19" activeTab="21" xr2:uid="{D170740D-F730-4FE0-A2DA-00C8EA3E9EA2}"/>
   </bookViews>
   <sheets>
     <sheet name="or_to_icu" sheetId="1" state="hidden" r:id="rId1"/>
@@ -27,8 +27,11 @@
     <sheet name="screening_cs" sheetId="17" r:id="rId17"/>
     <sheet name="surgery_cs" sheetId="18" r:id="rId18"/>
     <sheet name="stress hyperglycemia 4 to 24h" sheetId="21" r:id="rId19"/>
-    <sheet name="aha glucose" sheetId="5" state="hidden" r:id="rId20"/>
-    <sheet name="aha patient" sheetId="6" state="hidden" r:id="rId21"/>
+    <sheet name="blood draws timestamps" sheetId="23" r:id="rId20"/>
+    <sheet name="c18_feature_2" sheetId="24" r:id="rId21"/>
+    <sheet name="hilic_feature_2" sheetId="25" r:id="rId22"/>
+    <sheet name="aha glucose" sheetId="5" state="hidden" r:id="rId23"/>
+    <sheet name="aha patient" sheetId="6" state="hidden" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'METACABG 20230706'!$B$1:$J$505</definedName>
@@ -89,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6959" uniqueCount="4097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7057" uniqueCount="4163">
   <si>
     <t>variable</t>
   </si>
@@ -12443,12 +12446,210 @@
   <si>
     <t>dialysis_any</t>
   </si>
+  <si>
+    <t>visit1</t>
+  </si>
+  <si>
+    <t>visit2</t>
+  </si>
+  <si>
+    <t>visit3</t>
+  </si>
+  <si>
+    <t>visit4</t>
+  </si>
+  <si>
+    <t>visit5</t>
+  </si>
+  <si>
+    <t>valid_visit1</t>
+  </si>
+  <si>
+    <t>valid_visit2</t>
+  </si>
+  <si>
+    <t>valid_visit3</t>
+  </si>
+  <si>
+    <t>valid_visit4</t>
+  </si>
+  <si>
+    <t>valid_visit5</t>
+  </si>
+  <si>
+    <t>diff_surgerystartmv1</t>
+  </si>
+  <si>
+    <t>diff_v2msurgerystart</t>
+  </si>
+  <si>
+    <t>diff_v3msurgeryend</t>
+  </si>
+  <si>
+    <t>diff_v4msurgeryend</t>
+  </si>
+  <si>
+    <t>diff_v5msurgeryend</t>
+  </si>
+  <si>
+    <t>flags_v1</t>
+  </si>
+  <si>
+    <t>flags_v2</t>
+  </si>
+  <si>
+    <t>flags_v3</t>
+  </si>
+  <si>
+    <t>flags_v4</t>
+  </si>
+  <si>
+    <t>flags_v5</t>
+  </si>
+  <si>
+    <t>visit1_imputed</t>
+  </si>
+  <si>
+    <t>visit2_imputed</t>
+  </si>
+  <si>
+    <t>visit3_imputed</t>
+  </si>
+  <si>
+    <t>visit4_imputed</t>
+  </si>
+  <si>
+    <t>visit5_imputed</t>
+  </si>
+  <si>
+    <t>Original timestamp for V1</t>
+  </si>
+  <si>
+    <t>Original timestamp for V2</t>
+  </si>
+  <si>
+    <t>Original timestamp for V3</t>
+  </si>
+  <si>
+    <t>Original timestamp for V4</t>
+  </si>
+  <si>
+    <t>Original timestamp for V5</t>
+  </si>
+  <si>
+    <t>Notes for patient ID</t>
+  </si>
+  <si>
+    <t>Was hour == 0 and minute == 0 for visit 1? (Valid, Invalid, Missing Timestamp)</t>
+  </si>
+  <si>
+    <t>Was hour == 0 and minute == 0 for visit 2? (Valid, Invalid, Missing Timestamp)</t>
+  </si>
+  <si>
+    <t>Was hour == 0 and minute == 0 for visit 3? (Valid, Invalid, Missing Timestamp)</t>
+  </si>
+  <si>
+    <t>Was hour == 0 and minute == 0 for visit 4? (Valid, Invalid, Missing Timestamp)</t>
+  </si>
+  <si>
+    <t>Was hour == 0 and minute == 0 for visit 5? (Valid, Invalid, Missing Timestamp)</t>
+  </si>
+  <si>
+    <t>Timestamp for surgery start (from surgery_cs)</t>
+  </si>
+  <si>
+    <t>Timestamp for surgery end (from surgery_cs)</t>
+  </si>
+  <si>
+    <t>If valid_visit1 == "Valid", difference in minutes between surgery start and visit 1</t>
+  </si>
+  <si>
+    <t>If valid_visit5 == "Valid", difference in minutes between surgery end and visit 5</t>
+  </si>
+  <si>
+    <t>If valid_visit4 == "Valid", difference in minutes between surgery end and visit 4</t>
+  </si>
+  <si>
+    <t>If valid_visit3 == "Valid", difference in minutes between surgery end and visit 3</t>
+  </si>
+  <si>
+    <t>If valid_visit2 == "Valid", difference in minutes between visit2 and surgery start</t>
+  </si>
+  <si>
+    <t>Was data collected more than 24 hours ago OR missing OR looks good?</t>
+  </si>
+  <si>
+    <t>Was data collected more than 2 hours later OR missing or looks good?</t>
+  </si>
+  <si>
+    <t>Was data collected more than 48 hours later OR missing or before surgery or before 24 hours or looks good?</t>
+  </si>
+  <si>
+    <t>Was data collected more than 96 hours later OR less than 72 hours later OR missing or looks good?</t>
+  </si>
+  <si>
+    <t>Was data collected more than 30 days later OR missing or looks good?</t>
+  </si>
+  <si>
+    <t>visit1 imputed using median of diff_surgerystartmv1</t>
+  </si>
+  <si>
+    <t>visit2 imputed using median of diff_v2msurgerystart</t>
+  </si>
+  <si>
+    <t>visit3 imputed using median of diff_v3msurgeryend</t>
+  </si>
+  <si>
+    <t>visit4 imputed using median of diff_v4msurgeryend</t>
+  </si>
+  <si>
+    <t>visit5 imputed using median of diff_v5msurgeryend</t>
+  </si>
+  <si>
+    <t>mz</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>mass to charge ratio</t>
+  </si>
+  <si>
+    <t>retention time</t>
+  </si>
+  <si>
+    <t>Intensity for Visit 1</t>
+  </si>
+  <si>
+    <t>Intensity for Visit 2</t>
+  </si>
+  <si>
+    <t>Intensity for Visit 3</t>
+  </si>
+  <si>
+    <t>Intensity for Visit 4</t>
+  </si>
+  <si>
+    <t>Intensity for Visit 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12504,6 +12705,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -14842,7 +15049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7BF4C5-AF7C-4E65-B822-62C042B31EF5}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14914,7 +15123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1AF4F-5AA5-4979-BAAF-416AE60C7B2E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15040,6 +15251,449 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E5E5AE-7933-4ACC-B2DD-A0F04160D626}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4098</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>893</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>548</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>4118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C9AC9E-340B-4C4D-B052-1D6154EDEF7E}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF56752-5D5A-4C86-8E0C-0A0A9B1593D1}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F730E738-71E8-4BB9-9BDD-FAFBA3CE3EC3}">
   <dimension ref="A1:B146"/>
   <sheetViews>
@@ -16110,7 +16764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7ED6AA-780D-40B6-8131-5D17C4E940B1}">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -27305,8 +27959,8 @@
   </sheetPr>
   <dimension ref="A1:D1385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A916" workbookViewId="0">
-      <selection activeCell="D941" sqref="D941"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28948,12 +29602,18 @@
       <c r="B164" t="s">
         <v>2998</v>
       </c>
+      <c r="C164" t="s">
+        <v>2998</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B165" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C165" t="s">
         <v>2999</v>
       </c>
       <c r="D165" t="s">

--- a/data/CABG Hyperglycemia Variable List.xlsx
+++ b/data/CABG Hyperglycemia Variable List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B978AC98-631D-48B9-A728-76ED832C453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688A11FF-4485-420F-A7FD-E48840B02746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-15840" windowWidth="16440" windowHeight="28440" firstSheet="19" activeTab="21" xr2:uid="{D170740D-F730-4FE0-A2DA-00C8EA3E9EA2}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" firstSheet="21" activeTab="23" xr2:uid="{D170740D-F730-4FE0-A2DA-00C8EA3E9EA2}"/>
   </bookViews>
   <sheets>
     <sheet name="or_to_icu" sheetId="1" state="hidden" r:id="rId1"/>
@@ -30,8 +30,10 @@
     <sheet name="blood draws timestamps" sheetId="23" r:id="rId20"/>
     <sheet name="c18_feature_2" sheetId="24" r:id="rId21"/>
     <sheet name="hilic_feature_2" sheetId="25" r:id="rId22"/>
-    <sheet name="aha glucose" sheetId="5" state="hidden" r:id="rId23"/>
-    <sheet name="aha patient" sheetId="6" state="hidden" r:id="rId24"/>
+    <sheet name="C18_Mummichog Metabolite Match" sheetId="26" r:id="rId23"/>
+    <sheet name="HIL_Mummichog Metabolite Match" sheetId="27" r:id="rId24"/>
+    <sheet name="aha glucose" sheetId="5" state="hidden" r:id="rId25"/>
+    <sheet name="aha patient" sheetId="6" state="hidden" r:id="rId26"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'METACABG 20230706'!$B$1:$J$505</definedName>
@@ -92,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7057" uniqueCount="4163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7091" uniqueCount="4177">
   <si>
     <t>variable</t>
   </si>
@@ -12643,6 +12645,48 @@
   </si>
   <si>
     <t>Intensity for Visit 5</t>
+  </si>
+  <si>
+    <t>Compound_ID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>match_form</t>
+  </si>
+  <si>
+    <t>mz_difference</t>
+  </si>
+  <si>
+    <t>in_pathways</t>
+  </si>
+  <si>
+    <t>evidence_score</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>all_possibles</t>
+  </si>
+  <si>
+    <t>Mummichog Compound ID?</t>
+  </si>
+  <si>
+    <t>Compound Name</t>
+  </si>
+  <si>
+    <t>Input M/Z ratio</t>
+  </si>
+  <si>
+    <t>Form match with adduct</t>
+  </si>
+  <si>
+    <t>Difference in M/Z relative to Compound_ID</t>
+  </si>
+  <si>
+    <t>Which pathways are the Compound present in?</t>
   </si>
 </sst>
 </file>
@@ -15050,7 +15094,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15606,8 +15650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF56752-5D5A-4C86-8E0C-0A0A9B1593D1}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15694,6 +15738,186 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D743FB1F-4F45-4EF9-805E-52209AEA1864}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBEA197-DF25-44D0-9C28-2365EC9D43B8}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F730E738-71E8-4BB9-9BDD-FAFBA3CE3EC3}">
   <dimension ref="A1:B146"/>
   <sheetViews>
@@ -16764,7 +16988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7ED6AA-780D-40B6-8131-5D17C4E940B1}">
   <dimension ref="A1:B32"/>
   <sheetViews>

--- a/data/CABG Hyperglycemia Variable List.xlsx
+++ b/data/CABG Hyperglycemia Variable List.xlsx
@@ -3,9 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688A11FF-4485-420F-A7FD-E48840B02746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3DD5F3-D540-4D8B-9921-8E5E35BADFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" firstSheet="21" activeTab="23" xr2:uid="{D170740D-F730-4FE0-A2DA-00C8EA3E9EA2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{D170740D-F730-4FE0-A2DA-00C8EA3E9EA2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="23" activeTab="25" xr2:uid="{18D90FB9-8B94-4B85-AE0C-47B2E521BCF3}"/>
   </bookViews>
   <sheets>
     <sheet name="or_to_icu" sheetId="1" state="hidden" r:id="rId1"/>
@@ -26,14 +27,16 @@
     <sheet name="labtests_longitudinal" sheetId="22" r:id="rId16"/>
     <sheet name="screening_cs" sheetId="17" r:id="rId17"/>
     <sheet name="surgery_cs" sheetId="18" r:id="rId18"/>
-    <sheet name="stress hyperglycemia 4 to 24h" sheetId="21" r:id="rId19"/>
-    <sheet name="blood draws timestamps" sheetId="23" r:id="rId20"/>
-    <sheet name="c18_feature_2" sheetId="24" r:id="rId21"/>
-    <sheet name="hilic_feature_2" sheetId="25" r:id="rId22"/>
-    <sheet name="C18_Mummichog Metabolite Match" sheetId="26" r:id="rId23"/>
-    <sheet name="HIL_Mummichog Metabolite Match" sheetId="27" r:id="rId24"/>
-    <sheet name="aha glucose" sheetId="5" state="hidden" r:id="rId25"/>
-    <sheet name="aha patient" sheetId="6" state="hidden" r:id="rId26"/>
+    <sheet name="afib" sheetId="29" r:id="rId19"/>
+    <sheet name="aki" sheetId="28" r:id="rId20"/>
+    <sheet name="stress hyperglycemia 4 to 24h" sheetId="21" r:id="rId21"/>
+    <sheet name="blood draws timestamps" sheetId="23" r:id="rId22"/>
+    <sheet name="c18_feature_2" sheetId="24" r:id="rId23"/>
+    <sheet name="hilic_feature_2" sheetId="25" r:id="rId24"/>
+    <sheet name="C18_Mummichog Metabolite Match" sheetId="26" r:id="rId25"/>
+    <sheet name="HIL_Mummichog Metabolite Match" sheetId="27" r:id="rId26"/>
+    <sheet name="aha glucose" sheetId="5" state="hidden" r:id="rId27"/>
+    <sheet name="aha patient" sheetId="6" state="hidden" r:id="rId28"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'METACABG 20230706'!$B$1:$J$505</definedName>
@@ -94,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7091" uniqueCount="4177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7143" uniqueCount="4197">
   <si>
     <t>variable</t>
   </si>
@@ -12687,6 +12690,66 @@
   </si>
   <si>
     <t>Which pathways are the Compound present in?</t>
+  </si>
+  <si>
+    <t>baseline_creatinine</t>
+  </si>
+  <si>
+    <t>absolute_change_from_baseline</t>
+  </si>
+  <si>
+    <t>relative_change_from_baseline</t>
+  </si>
+  <si>
+    <t>aki_status</t>
+  </si>
+  <si>
+    <t>Creatinine value</t>
+  </si>
+  <si>
+    <t>Creatinine at baseline</t>
+  </si>
+  <si>
+    <t>Absolute change in creatinine from baseline</t>
+  </si>
+  <si>
+    <t>Relative change in creatinine from baseline</t>
+  </si>
+  <si>
+    <t>AKI if absolute_change_from_baseline &gt;= 0.3 OR relative_change_from_baseline &gt;= 1.5</t>
+  </si>
+  <si>
+    <t>aki</t>
+  </si>
+  <si>
+    <t>stress hyperglycemia 4 to 24h</t>
+  </si>
+  <si>
+    <t>blood draws timestamps</t>
+  </si>
+  <si>
+    <t>c18_feature_2</t>
+  </si>
+  <si>
+    <t>hilic_feature_2</t>
+  </si>
+  <si>
+    <t>C18_Mummichog Metabolite Match</t>
+  </si>
+  <si>
+    <t>HIL_Mummichog Metabolite Match</t>
+  </si>
+  <si>
+    <t>~/preprocessing/chpre04_time to primary outcomes.R</t>
+  </si>
+  <si>
+    <t>~/data/chd04_blood draws.R</t>
+  </si>
+  <si>
+    <t>~/data/chd05_longitudinal metabolomics.R</t>
+  </si>
+  <si>
+    <t>~/data/chd06_mummichog annotated metabolites.R</t>
   </si>
 </sst>
 </file>
@@ -13369,6 +13432,7 @@
   <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14172,6 +14236,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14260,6 +14325,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14340,6 +14406,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14428,6 +14495,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14476,6 +14544,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14565,6 +14634,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14693,7 +14763,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E501EB67-4E9F-4768-B92B-2D733FABF3F7}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14806,6 +14879,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15096,6 +15170,7 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15164,11 +15239,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1AF4F-5AA5-4979-BAAF-416AE60C7B2E}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F16D22F-A873-47B1-9C06-C81A6E8AFF8D}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15194,42 +15272,58 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2875</v>
+        <v>4005</v>
       </c>
       <c r="B3" t="s">
-        <v>2881</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2876</v>
+        <v>4088</v>
       </c>
       <c r="B4" t="s">
-        <v>2880</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2877</v>
+        <v>659</v>
       </c>
       <c r="B5" t="s">
-        <v>2882</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2878</v>
+        <v>4089</v>
       </c>
       <c r="B6" t="s">
-        <v>2883</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2879</v>
+        <v>4090</v>
       </c>
       <c r="B7" t="s">
-        <v>2884</v>
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B9" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -15242,6 +15336,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15295,12 +15390,181 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C8E738-E237-44B3-A8F1-4CD3AB88ABB2}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1AF4F-5AA5-4979-BAAF-416AE60C7B2E}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E5E5AE-7933-4ACC-B2DD-A0F04160D626}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15554,13 +15818,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C9AC9E-340B-4C4D-B052-1D6154EDEF7E}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B9"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15646,13 +15911,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF56752-5D5A-4C86-8E0C-0A0A9B1593D1}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15737,13 +16003,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D743FB1F-4F45-4EF9-805E-52209AEA1864}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15827,13 +16094,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBEA197-DF25-44D0-9C28-2365EC9D43B8}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15917,11 +16185,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F730E738-71E8-4BB9-9BDD-FAFBA3CE3EC3}">
   <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -16988,11 +17257,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7ED6AA-780D-40B6-8131-5D17C4E940B1}">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -17262,6 +17532,7 @@
   <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18767,9 +19038,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C9B308-162A-4FA9-98F4-5823503BDBEE}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18889,6 +19163,70 @@
       </c>
       <c r="C13" t="s">
         <v>2225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>671</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4186</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4187</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4188</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4189</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4190</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>4192</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4196</v>
       </c>
     </row>
   </sheetData>
@@ -18904,6 +19242,7 @@
   <dimension ref="A1:M505"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -28183,9 +28522,10 @@
   </sheetPr>
   <dimension ref="A1:D1385"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -41072,6 +41412,7 @@
   <dimension ref="A2:M63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -42655,6 +42996,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -44465,6 +44807,7 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/data/CABG Hyperglycemia Variable List.xlsx
+++ b/data/CABG Hyperglycemia Variable List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3DD5F3-D540-4D8B-9921-8E5E35BADFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1385B5C-0657-407E-BC90-214C39F573E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{D170740D-F730-4FE0-A2DA-00C8EA3E9EA2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="17" activeTab="20" xr2:uid="{D170740D-F730-4FE0-A2DA-00C8EA3E9EA2}"/>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="23" activeTab="25" xr2:uid="{18D90FB9-8B94-4B85-AE0C-47B2E521BCF3}"/>
   </bookViews>
   <sheets>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7143" uniqueCount="4197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7147" uniqueCount="4201">
   <si>
     <t>variable</t>
   </si>
@@ -12750,6 +12750,18 @@
   </si>
   <si>
     <t>~/data/chd06_mummichog annotated metabolites.R</t>
+  </si>
+  <si>
+    <t>stress_hyperglycemia_def2</t>
+  </si>
+  <si>
+    <t>Stress hyperglycemia definition 2 (1: n_bg_ge140 &gt;= 2 OR n_bg_ge180 &gt;= 1, 0: Else)</t>
+  </si>
+  <si>
+    <t>n_bg_ge180</t>
+  </si>
+  <si>
+    <t>Number of POCT blood glucose measurements &gt;= 189 mg/dL</t>
   </si>
 </sst>
 </file>
@@ -15484,10 +15496,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1AF4F-5AA5-4979-BAAF-416AE60C7B2E}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C1:H1048576"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -15538,18 +15550,34 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2878</v>
+        <v>4199</v>
       </c>
       <c r="B6" t="s">
-        <v>2883</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>2879</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>2884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4198</v>
       </c>
     </row>
   </sheetData>
@@ -19040,7 +19068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C9B308-162A-4FA9-98F4-5823503BDBEE}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
